--- a/Report and Documentation/Source_to_Target_Documentation.xlsx
+++ b/Report and Documentation/Source_to_Target_Documentation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MW\Desktop\Project2\TeamSpark\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MW\Desktop\Project2\TeamSpark\Report and Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6952FB06-204E-4625-BE39-E7DF347C4A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1E5009-ECC8-497D-8125-4D32D6714530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E609C33-0A9E-4DBE-9D4A-33AF5187E0F5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="130">
   <si>
     <t>Source</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Include only attacks in USA</t>
   </si>
   <si>
-    <t>Dropped unnecessary columns-Fatal, Sex, Name</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>Sorting to US only</t>
   </si>
   <si>
-    <t>Unnecessary columns that had too many blanks causing the dropna to drop too many</t>
-  </si>
-  <si>
     <t>Because the original CSV is from various sources without specific formatting we had to change the date information in order to load into postgresql</t>
   </si>
   <si>
@@ -223,12 +217,6 @@
   </si>
   <si>
     <t>Case Number, Injury, time, species, investigator or source, pdf, href formula, href, case number, case number, original order</t>
-  </si>
-  <si>
-    <t>Dropped these columns</t>
-  </si>
-  <si>
-    <t>Dropping initial unneccessary and duplicative columns</t>
   </si>
   <si>
     <t>The farther back the data the less specific the dates, also keeping the lookback to overlay with the other table</t>
@@ -367,13 +355,67 @@
     <t>joined the two starting tables</t>
   </si>
   <si>
-    <t>ice_cream table</t>
-  </si>
-  <si>
-    <t>changed column name to correct error</t>
-  </si>
-  <si>
-    <t>Pro</t>
+    <t>Number of Attacks</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Ice Cream Stores in a Mile</t>
+  </si>
+  <si>
+    <t>Injury</t>
+  </si>
+  <si>
+    <t>dropped</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>investigator or source</t>
+  </si>
+  <si>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t>href formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">href  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">case number  </t>
+  </si>
+  <si>
+    <t>case number</t>
+  </si>
+  <si>
+    <t>original order</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Fatal</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>dropped unneccesary column</t>
+  </si>
+  <si>
+    <t>Did API call and set parameters to find ice creams stores near shark attack locations</t>
   </si>
 </sst>
 </file>
@@ -472,6 +514,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -479,9 +524,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -799,34 +841,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5513CD8C-2D59-47E8-A428-49A9DEB47A60}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="26.7109375" style="1"/>
+    <col min="1" max="8" width="26.7109375" style="1"/>
+    <col min="9" max="9" width="28" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="26.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -838,7 +882,7 @@
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="6"/>
       <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
@@ -859,8 +903,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>33</v>
+      <c r="A3" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
@@ -872,10 +916,10 @@
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>10</v>
@@ -884,765 +928,939 @@
         <v>11</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>33</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>33</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>33</v>
+        <v>114</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="J28" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="G29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="H34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="I40" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I23" s="1" t="s">
+      <c r="G43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1654,11 +1872,11 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="https://www.sharkattackfile.net/incidentlog.htm" xr:uid="{E213E35E-7CE7-451C-8EA0-E6FA404ABD0D}"/>
-    <hyperlink ref="A5" r:id="rId2" display="https://www.sharkattackfile.net/incidentlog.htm" xr:uid="{154CF812-63AD-4299-8EBE-57C1B40C4C54}"/>
-    <hyperlink ref="A6" r:id="rId3" display="https://www.sharkattackfile.net/incidentlog.htm" xr:uid="{954D0D06-9B1C-4673-AA3B-23EB321E1E14}"/>
-    <hyperlink ref="A7" r:id="rId4" display="https://www.sharkattackfile.net/incidentlog.htm" xr:uid="{5391127A-0CA1-4E36-9DA1-485DDF5F8E2D}"/>
-    <hyperlink ref="A8" r:id="rId5" display="https://www.sharkattackfile.net/incidentlog.htm" xr:uid="{7E80B720-6833-4369-80C4-CF45E36D0DF5}"/>
-    <hyperlink ref="A9" r:id="rId6" display="https://www.sharkattackfile.net/incidentlog.htm" xr:uid="{CFA2AE55-2752-4004-8A84-6BB493E0C313}"/>
+    <hyperlink ref="A15" r:id="rId2" display="https://www.sharkattackfile.net/incidentlog.htm" xr:uid="{154CF812-63AD-4299-8EBE-57C1B40C4C54}"/>
+    <hyperlink ref="A16" r:id="rId3" display="https://www.sharkattackfile.net/incidentlog.htm" xr:uid="{954D0D06-9B1C-4673-AA3B-23EB321E1E14}"/>
+    <hyperlink ref="A19" r:id="rId4" display="https://www.sharkattackfile.net/incidentlog.htm" xr:uid="{5391127A-0CA1-4E36-9DA1-485DDF5F8E2D}"/>
+    <hyperlink ref="A20" r:id="rId5" display="https://www.sharkattackfile.net/incidentlog.htm" xr:uid="{7E80B720-6833-4369-80C4-CF45E36D0DF5}"/>
+    <hyperlink ref="A21" r:id="rId6" display="https://www.sharkattackfile.net/incidentlog.htm" xr:uid="{CFA2AE55-2752-4004-8A84-6BB493E0C313}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>

--- a/Report and Documentation/Source_to_Target_Documentation.xlsx
+++ b/Report and Documentation/Source_to_Target_Documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MW\Desktop\Project2\TeamSpark\Report and Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1E5009-ECC8-497D-8125-4D32D6714530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33257C7-B586-4B5B-A9A9-55C327BC905E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E609C33-0A9E-4DBE-9D4A-33AF5187E0F5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="135">
   <si>
     <t>Source</t>
   </si>
@@ -416,6 +416,21 @@
   </si>
   <si>
     <t>Did API call and set parameters to find ice creams stores near shark attack locations</t>
+  </si>
+  <si>
+    <t>Open Weather API</t>
+  </si>
+  <si>
+    <t>Temperature in Farenheit</t>
+  </si>
+  <si>
+    <t>used api call to add weather column to DF</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>added a column to table</t>
   </si>
 </sst>
 </file>
@@ -841,10 +856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5513CD8C-2D59-47E8-A428-49A9DEB47A60}">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1861,6 +1876,35 @@
       </c>
       <c r="I43" s="1" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
